--- a/static/Z_E.xlsx
+++ b/static/Z_E.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>APACE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,18 @@
     <t>体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -226,7 +238,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -288,7 +300,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1079,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L72"/>
+  <dimension ref="A3:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:K56"/>
+    <sheetView tabSelected="1" topLeftCell="F93" workbookViewId="0">
+      <selection activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1930,7 +1942,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35" s="3">
-        <f t="shared" ref="B35:L46" si="4">B22*100</f>
+        <f t="shared" ref="B35:L44" si="4">B22*100</f>
         <v>33.33</v>
       </c>
       <c r="C35" s="3">
@@ -2794,7 +2806,7 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62">
-        <f t="shared" ref="B62:K74" si="7">B48*100</f>
+        <f t="shared" ref="B62:K72" si="7">B48*100</f>
         <v>20</v>
       </c>
       <c r="C62">
@@ -2918,7 +2930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B65">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -2960,7 +2972,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B66">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -3002,7 +3014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B67">
         <f t="shared" si="7"/>
         <v>60</v>
@@ -3044,7 +3056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B68">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -3086,7 +3098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B69">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -3128,7 +3140,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B70">
         <f t="shared" si="7"/>
         <v>20</v>
@@ -3170,7 +3182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="C71">
         <f t="shared" ref="C71:K71" si="8">C57*100</f>
         <v>0</v>
@@ -3208,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B72">
         <f t="shared" si="7"/>
         <v>40</v>
@@ -3248,11 +3260,1981 @@
       <c r="K72">
         <f t="shared" si="7"/>
         <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" t="s">
+        <v>14</v>
+      </c>
+      <c r="M74" t="s">
+        <v>48</v>
+      </c>
+      <c r="N74" t="s">
+        <v>49</v>
+      </c>
+      <c r="O74" t="s">
+        <v>50</v>
+      </c>
+      <c r="P74" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>52</v>
+      </c>
+      <c r="R74" t="s">
+        <v>53</v>
+      </c>
+      <c r="S74" t="s">
+        <v>54</v>
+      </c>
+      <c r="T74" t="s">
+        <v>55</v>
+      </c>
+      <c r="U74" t="s">
+        <v>56</v>
+      </c>
+      <c r="V74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B76" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B78" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U78" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="V78" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J79" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R79" s="3">
+        <v>1</v>
+      </c>
+      <c r="S79" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U79" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="V79" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B80" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="T80" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="V80" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="T82" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="U82" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="V82" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B84" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M84" s="3">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B86" s="3">
+        <f>AVERAGE(B75:B84)</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" ref="C86:V86" si="9">AVERAGE(C75:C84)</f>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.52</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="F86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.34</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="I86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.495</v>
+      </c>
+      <c r="K86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.40499999999999997</v>
+      </c>
+      <c r="L86" s="3" t="e">
+        <f>AVERAGE(L75:L84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="N86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.34</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.495</v>
+      </c>
+      <c r="Q86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.26999999999999996</v>
+      </c>
+      <c r="R86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.52</v>
+      </c>
+      <c r="S86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.40499999999999997</v>
+      </c>
+      <c r="T86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="U86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="V86" s="3">
+        <f t="shared" si="9"/>
+        <v>0.44000000000000006</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <v>0.4</v>
+      </c>
+      <c r="C89">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="D89">
+        <v>0.6</v>
+      </c>
+      <c r="E89">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F89">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="G89">
+        <v>0.5</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>0.2</v>
+      </c>
+      <c r="J89">
+        <v>0.25</v>
+      </c>
+      <c r="K89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B90">
+        <v>0.25</v>
+      </c>
+      <c r="C90">
+        <v>0.25</v>
+      </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <v>0.5</v>
+      </c>
+      <c r="F90">
+        <v>0.1429</v>
+      </c>
+      <c r="G90">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+      <c r="I90">
+        <v>0.25</v>
+      </c>
+      <c r="J90">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B91">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0.4</v>
+      </c>
+      <c r="E91">
+        <v>0.6</v>
+      </c>
+      <c r="F91">
+        <v>0.1429</v>
+      </c>
+      <c r="G91">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="H91">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="I91">
+        <v>0.6</v>
+      </c>
+      <c r="J91">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K91">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B92">
+        <v>0.75</v>
+      </c>
+      <c r="C92">
+        <v>0.25</v>
+      </c>
+      <c r="D92">
+        <v>0.2</v>
+      </c>
+      <c r="E92">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F92">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="G92">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="H92">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I92">
+        <v>0.5</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B93">
+        <v>0.25</v>
+      </c>
+      <c r="C93">
+        <v>0.2</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F93">
+        <v>0.1429</v>
+      </c>
+      <c r="G93">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="H93">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I93">
+        <v>0.4</v>
+      </c>
+      <c r="J93">
+        <v>0.6</v>
+      </c>
+      <c r="K93">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B94">
+        <v>0.4</v>
+      </c>
+      <c r="C94">
+        <v>0.5</v>
+      </c>
+      <c r="D94">
+        <v>0.5</v>
+      </c>
+      <c r="E94">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F94">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G94">
+        <v>0.5</v>
+      </c>
+      <c r="H94">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K94">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B95">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="C95">
+        <v>0.5</v>
+      </c>
+      <c r="D95">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E95">
+        <v>0.2</v>
+      </c>
+      <c r="F95">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="G95">
+        <v>0.5</v>
+      </c>
+      <c r="H95">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="I95">
+        <v>0.1429</v>
+      </c>
+      <c r="J95">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="K95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B96">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C96">
+        <v>0.4</v>
+      </c>
+      <c r="D96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>0.5</v>
+      </c>
+      <c r="F96">
+        <v>0.2</v>
+      </c>
+      <c r="G96">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="H96">
+        <v>0.4</v>
+      </c>
+      <c r="I96">
+        <v>0.5</v>
+      </c>
+      <c r="J96">
+        <v>0.4</v>
+      </c>
+      <c r="K96">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B97">
+        <v>0.6</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0.4</v>
+      </c>
+      <c r="E97">
+        <v>0.25</v>
+      </c>
+      <c r="F97">
+        <v>0.5</v>
+      </c>
+      <c r="G97">
+        <v>0.5</v>
+      </c>
+      <c r="H97">
+        <v>0.2</v>
+      </c>
+      <c r="I97">
+        <v>0.4</v>
+      </c>
+      <c r="J97">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B98">
+        <v>0.25</v>
+      </c>
+      <c r="C98">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="D98">
+        <v>0.6</v>
+      </c>
+      <c r="E98">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F98">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="I98">
+        <v>0.75</v>
+      </c>
+      <c r="J98">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" t="s">
+        <v>13</v>
+      </c>
+      <c r="K99" t="s">
+        <v>14</v>
+      </c>
+      <c r="M99" t="s">
+        <v>48</v>
+      </c>
+      <c r="N99" t="s">
+        <v>49</v>
+      </c>
+      <c r="O99" t="s">
+        <v>50</v>
+      </c>
+      <c r="P99" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>52</v>
+      </c>
+      <c r="R99" t="s">
+        <v>53</v>
+      </c>
+      <c r="S99" t="s">
+        <v>54</v>
+      </c>
+      <c r="T99" t="s">
+        <v>55</v>
+      </c>
+      <c r="U99" t="s">
+        <v>56</v>
+      </c>
+      <c r="V99" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="3">
+        <f>B89*100</f>
+        <v>40</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" ref="C100:K100" si="10">C89*100</f>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="10"/>
+        <v>28.57</v>
+      </c>
+      <c r="F100" s="3">
+        <f t="shared" si="10"/>
+        <v>28.57</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="I100" s="3">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="K100" s="3">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="M100" s="3">
+        <v>50</v>
+      </c>
+      <c r="N100" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="O100" s="3">
+        <v>50</v>
+      </c>
+      <c r="P100" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="R100" s="3">
+        <v>60</v>
+      </c>
+      <c r="S100" s="3">
+        <v>20</v>
+      </c>
+      <c r="T100" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="U100" s="3">
+        <v>40</v>
+      </c>
+      <c r="V100" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B101" s="3">
+        <f t="shared" ref="B101:C109" si="11">B90*100</f>
+        <v>25</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ref="D101:E101" si="12">D90*100</f>
+        <v>50</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" ref="F101:K101" si="13">F90*100</f>
+        <v>14.29</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="13"/>
+        <v>28.57</v>
+      </c>
+      <c r="H101" s="3">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="I101" s="3">
+        <f t="shared" si="13"/>
+        <v>25</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="13"/>
+        <v>66.67</v>
+      </c>
+      <c r="K101" s="3">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="M101" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="N101" s="3">
+        <v>14.29</v>
+      </c>
+      <c r="O101" s="3">
+        <v>50</v>
+      </c>
+      <c r="P101" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>25</v>
+      </c>
+      <c r="R101" s="3">
+        <v>50</v>
+      </c>
+      <c r="S101" s="3">
+        <v>20</v>
+      </c>
+      <c r="T101" s="3">
+        <v>50</v>
+      </c>
+      <c r="U101" s="3">
+        <v>25</v>
+      </c>
+      <c r="V101" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B102" s="3">
+        <f t="shared" si="11"/>
+        <v>33.33</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" ref="D102:E102" si="14">D91*100</f>
+        <v>40</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" ref="F102:K102" si="15">F91*100</f>
+        <v>14.29</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="15"/>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="H102" s="3">
+        <f t="shared" si="15"/>
+        <v>28.57</v>
+      </c>
+      <c r="I102" s="3">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="15"/>
+        <v>33.33</v>
+      </c>
+      <c r="K102" s="3">
+        <f t="shared" si="15"/>
+        <v>28.57</v>
+      </c>
+      <c r="M102" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="N102" s="3">
+        <v>14.29</v>
+      </c>
+      <c r="O102" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="P102" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>40</v>
+      </c>
+      <c r="S102" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="T102" s="3">
+        <v>60</v>
+      </c>
+      <c r="U102" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="V102" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B103" s="3">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" ref="D103:E103" si="16">D92*100</f>
+        <v>20</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="16"/>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" ref="F103:K103" si="17">F92*100</f>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="17"/>
+        <v>28.57</v>
+      </c>
+      <c r="H103" s="3">
+        <f t="shared" si="17"/>
+        <v>33.33</v>
+      </c>
+      <c r="I103" s="3">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="3">
+        <f t="shared" si="17"/>
+        <v>33.33</v>
+      </c>
+      <c r="M103" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="N103" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="O103" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="P103" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="3">
+        <v>25</v>
+      </c>
+      <c r="R103" s="3">
+        <v>20</v>
+      </c>
+      <c r="S103" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="T103" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="U103" s="3">
+        <v>75</v>
+      </c>
+      <c r="V103" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B104" s="3">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" ref="D104:E104" si="18">D93*100</f>
+        <v>100</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="18"/>
+        <v>33.33</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" ref="F104:K104" si="19">F93*100</f>
+        <v>14.29</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="19"/>
+        <v>33.33</v>
+      </c>
+      <c r="H104" s="3">
+        <f t="shared" si="19"/>
+        <v>33.33</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="K104" s="3">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+      <c r="M104" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="N104" s="3">
+        <v>14.29</v>
+      </c>
+      <c r="O104" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="P104" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q104" s="3">
+        <v>20</v>
+      </c>
+      <c r="R104" s="3">
+        <v>100</v>
+      </c>
+      <c r="S104" s="3">
+        <v>60</v>
+      </c>
+      <c r="T104" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="U104" s="3">
+        <v>25</v>
+      </c>
+      <c r="V104" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B105" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" ref="D105:E105" si="20">D94*100</f>
+        <v>50</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="20"/>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="F105" s="3">
+        <f t="shared" ref="F105:K105" si="21">F94*100</f>
+        <v>33.33</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="H105" s="3">
+        <f t="shared" si="21"/>
+        <v>42.86</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="21"/>
+        <v>66.67</v>
+      </c>
+      <c r="K105" s="3">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="M105" s="3">
+        <v>50</v>
+      </c>
+      <c r="N105" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="O105" s="3">
+        <v>42.86</v>
+      </c>
+      <c r="P105" s="3">
+        <v>66.67</v>
+      </c>
+      <c r="Q105" s="3">
+        <v>50</v>
+      </c>
+      <c r="R105" s="3">
+        <v>50</v>
+      </c>
+      <c r="S105" s="3">
+        <v>25</v>
+      </c>
+      <c r="T105" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="U105" s="3">
+        <v>40</v>
+      </c>
+      <c r="V105" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B106" s="3">
+        <f t="shared" si="11"/>
+        <v>42.86</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" ref="D106:E106" si="22">D95*100</f>
+        <v>33.33</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="F106" s="3">
+        <f t="shared" ref="F106:K106" si="23">F95*100</f>
+        <v>42.86</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="H106" s="3">
+        <f t="shared" si="23"/>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" si="23"/>
+        <v>14.29</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="23"/>
+        <v>42.86</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="M106" s="3">
+        <v>50</v>
+      </c>
+      <c r="N106" s="3">
+        <v>42.86</v>
+      </c>
+      <c r="O106" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="P106" s="3">
+        <v>42.86</v>
+      </c>
+      <c r="Q106" s="3">
+        <v>50</v>
+      </c>
+      <c r="R106" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="S106" s="3">
+        <v>50</v>
+      </c>
+      <c r="T106" s="3">
+        <v>20</v>
+      </c>
+      <c r="U106" s="3">
+        <v>42.86</v>
+      </c>
+      <c r="V106" s="3">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B107" s="3">
+        <f t="shared" si="11"/>
+        <v>33.33</v>
+      </c>
+      <c r="C107" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" ref="D107:E107" si="24">D96*100</f>
+        <v>50</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="24"/>
+        <v>50</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" ref="F107:K107" si="25">F96*100</f>
+        <v>20</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="25"/>
+        <v>16.669999999999998</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="25"/>
+        <v>50</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="K107" s="3">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="M107" s="3">
+        <v>16.669999999999998</v>
+      </c>
+      <c r="N107" s="3">
+        <v>20</v>
+      </c>
+      <c r="O107" s="3">
+        <v>40</v>
+      </c>
+      <c r="P107" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q107" s="3">
+        <v>40</v>
+      </c>
+      <c r="R107" s="3">
+        <v>50</v>
+      </c>
+      <c r="S107" s="3">
+        <v>40</v>
+      </c>
+      <c r="T107" s="3">
+        <v>50</v>
+      </c>
+      <c r="U107" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="V107" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B108" s="3">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="C108" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" ref="D108:E108" si="26">D97*100</f>
+        <v>40</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="26"/>
+        <v>25</v>
+      </c>
+      <c r="F108" s="3">
+        <f t="shared" ref="F108:K108" si="27">F97*100</f>
+        <v>50</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="H108" s="3">
+        <f t="shared" si="27"/>
+        <v>20</v>
+      </c>
+      <c r="I108" s="3">
+        <f t="shared" si="27"/>
+        <v>40</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="K108" s="3">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="M108" s="3">
+        <v>50</v>
+      </c>
+      <c r="N108" s="3">
+        <v>50</v>
+      </c>
+      <c r="O108" s="3">
+        <v>20</v>
+      </c>
+      <c r="P108" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q108" s="3">
+        <v>0</v>
+      </c>
+      <c r="R108" s="3">
+        <v>40</v>
+      </c>
+      <c r="S108" s="3">
+        <v>50</v>
+      </c>
+      <c r="T108" s="3">
+        <v>25</v>
+      </c>
+      <c r="U108" s="3">
+        <v>60</v>
+      </c>
+      <c r="V108" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B109" s="3">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="C109" s="3">
+        <f t="shared" si="11"/>
+        <v>33.33</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" ref="D109:E109" si="28">D98*100</f>
+        <v>60</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="28"/>
+        <v>33.33</v>
+      </c>
+      <c r="F109" s="3">
+        <f t="shared" ref="F109:K109" si="29">F98*100</f>
+        <v>28.57</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="H109" s="3">
+        <f t="shared" si="29"/>
+        <v>33.33</v>
+      </c>
+      <c r="I109" s="3">
+        <f t="shared" si="29"/>
+        <v>75</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="29"/>
+        <v>50</v>
+      </c>
+      <c r="K109" s="3">
+        <f t="shared" si="29"/>
+        <v>42.86</v>
+      </c>
+      <c r="M109" s="3">
+        <v>100</v>
+      </c>
+      <c r="N109" s="3">
+        <v>28.57</v>
+      </c>
+      <c r="O109" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="P109" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q109" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="R109" s="3">
+        <v>60</v>
+      </c>
+      <c r="S109" s="3">
+        <v>42.86</v>
+      </c>
+      <c r="T109" s="3">
+        <v>33.33</v>
+      </c>
+      <c r="U109" s="3">
+        <v>25</v>
+      </c>
+      <c r="V109" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B111" s="3">
+        <f>AVERAGE(B100:B109)</f>
+        <v>39.951999999999998</v>
+      </c>
+      <c r="C111" s="3">
+        <f t="shared" ref="C111:K111" si="30">AVERAGE(C100:C109)</f>
+        <v>26</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" si="30"/>
+        <v>50.332999999999998</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="30"/>
+        <v>33.356999999999999</v>
+      </c>
+      <c r="F111" s="3">
+        <f t="shared" si="30"/>
+        <v>26.286999999999999</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="30"/>
+        <v>42.381</v>
+      </c>
+      <c r="H111" s="3">
+        <f t="shared" si="30"/>
+        <v>34.808999999999997</v>
+      </c>
+      <c r="I111" s="3">
+        <f t="shared" si="30"/>
+        <v>42.429000000000002</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="30"/>
+        <v>43.453000000000003</v>
+      </c>
+      <c r="K111" s="3">
+        <f t="shared" si="30"/>
+        <v>36.975999999999999</v>
+      </c>
+      <c r="L111" s="3">
+        <f>AVERAGE(B111:K111)</f>
+        <v>37.597699999999996</v>
+      </c>
+      <c r="M111" s="3">
+        <f>AVERAGE(M100:M109)</f>
+        <v>42.381</v>
+      </c>
+      <c r="N111" s="3">
+        <f t="shared" ref="N111:V111" si="31">AVERAGE(N100:N109)</f>
+        <v>26.286999999999999</v>
+      </c>
+      <c r="O111" s="3">
+        <f t="shared" si="31"/>
+        <v>34.808999999999997</v>
+      </c>
+      <c r="P111" s="3">
+        <f t="shared" si="31"/>
+        <v>43.453000000000003</v>
+      </c>
+      <c r="Q111" s="3">
+        <f t="shared" si="31"/>
+        <v>26</v>
+      </c>
+      <c r="R111" s="3">
+        <f t="shared" si="31"/>
+        <v>50.332999999999998</v>
+      </c>
+      <c r="S111" s="3">
+        <f t="shared" si="31"/>
+        <v>36.975999999999999</v>
+      </c>
+      <c r="T111" s="3">
+        <f t="shared" si="31"/>
+        <v>33.356999999999999</v>
+      </c>
+      <c r="U111" s="3">
+        <f t="shared" si="31"/>
+        <v>39.951999999999998</v>
+      </c>
+      <c r="V111" s="3">
+        <f t="shared" si="31"/>
+        <v>42.429000000000002</v>
+      </c>
+      <c r="W111" s="3">
+        <f>AVERAGE(M111:V111)</f>
+        <v>37.597699999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3260,8 +5242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4462,7 +6444,7 @@
   <dimension ref="B3:N48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B36" sqref="B36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5061,7 +7043,7 @@
         <v>0.13225000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>38</v>
       </c>
@@ -5093,7 +7075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>48</v>
       </c>
@@ -5125,7 +7107,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="3">
         <v>3.6381999999999999</v>
       </c>
@@ -5161,7 +7143,7 @@
         <v>5.8558199999999996</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="3">
         <v>4.2034000000000002</v>
       </c>
@@ -5197,7 +7179,7 @@
         <v>4.6354299999999995</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="3">
         <v>18.496400000000001</v>
       </c>
@@ -5232,8 +7214,12 @@
         <f t="shared" si="2"/>
         <v>17.48202999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="N39" s="3">
+        <f>L39+L40+L41+L46</f>
+        <v>67.910799999999867</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="3">
         <v>26.757999999999999</v>
       </c>
@@ -5269,7 +7255,7 @@
         <v>26.648439999999972</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="3">
         <v>10.2667</v>
       </c>
@@ -5305,7 +7291,7 @@
         <v>11.514179999999969</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="3">
         <v>5.7184999999999997</v>
       </c>
@@ -5341,7 +7327,7 @@
         <v>6.5224999999999982</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="3">
         <v>4.7766999999999999</v>
       </c>
@@ -5377,7 +7363,7 @@
         <v>4.7183899999999994</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="3">
         <v>4.7895999999999903</v>
       </c>
@@ -5413,7 +7399,7 @@
         <v>4.1672999999999956</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="3">
         <v>1.9229999999999901</v>
       </c>
@@ -5449,7 +7435,7 @@
         <v>6.186589999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="3">
         <v>19.429399999999902</v>
       </c>
@@ -5485,7 +7471,7 @@
         <v>12.26614999999995</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="3">
         <f>SUM(B37:B47)</f>
         <v>99.999899999999897</v>
@@ -5534,5 +7520,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>